--- a/Report Progress.xlsx
+++ b/Report Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
     <definedName name="_Toc306011890" localSheetId="0">Sheet1!$B$4</definedName>
     <definedName name="_Toc373322762" localSheetId="0">Sheet1!$C$5</definedName>
     <definedName name="_Toc373322763" localSheetId="0">Sheet1!$C$6</definedName>
-    <definedName name="_Toc373322764" localSheetId="0">Sheet1!$J$4</definedName>
+    <definedName name="_Toc373322764" localSheetId="0">Sheet1!$K$4</definedName>
     <definedName name="_Toc373322785" localSheetId="0">Sheet1!$C$10</definedName>
     <definedName name="_Toc373322786" localSheetId="0">Sheet1!$C$11</definedName>
     <definedName name="_Toc373322791" localSheetId="0">Sheet1!$C$14</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>EDS ID Report</t>
   </si>
@@ -185,17 +185,23 @@
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,20 +209,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,7 +241,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +257,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,9 +368,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -359,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -467,6 +516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,206 +692,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A18" sqref="A18"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="40.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:15">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="14.25">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <v>4</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="2:14" ht="14.25">
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.25">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75">
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="6">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="6">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="K8" s="10"/>
       <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" ht="14.25">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75">
       <c r="B10" s="6">
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="14.25">
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75">
       <c r="B11" s="6">
         <v>20</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="6">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="6">
         <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="K13" s="10"/>
       <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="2:14" ht="14.25">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75">
       <c r="B14" s="6">
         <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="6">
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="6">
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="N16" s="10"/>
-    </row>
-    <row r="19" spans="2:7" ht="15">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="B19" s="13" t="s">
         <v>5</v>
       </c>
@@ -858,32 +909,44 @@
         <v>46</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15">
-      <c r="B20" s="15">
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="30">
+        <v>1</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" ht="15">
+      <c r="D20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2</v>
+      </c>
       <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -895,27 +958,39 @@
       <c r="F21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" ht="15">
-      <c r="B22" s="15">
+      <c r="G21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="30">
+        <v>3</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:7" ht="15">
+      <c r="D22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>4</v>
+      </c>
       <c r="B23" s="15">
         <v>4</v>
       </c>
@@ -931,45 +1006,63 @@
       <c r="F23" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:7" ht="15">
-      <c r="B24" s="15">
+      <c r="G23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="2:7" ht="15">
-      <c r="B25" s="15">
+      <c r="D24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="30">
         <v>5.2</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:7" ht="15">
+      <c r="D25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>7</v>
+      </c>
       <c r="B26" s="19">
         <v>6</v>
       </c>
@@ -985,9 +1078,15 @@
       <c r="F26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:7" ht="15">
+      <c r="G26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>8</v>
+      </c>
       <c r="B27" s="19">
         <v>7.1</v>
       </c>
@@ -1001,9 +1100,15 @@
         <v>48</v>
       </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:7" ht="15">
+      <c r="G27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>9</v>
+      </c>
       <c r="B28" s="19">
         <v>7.2</v>
       </c>
@@ -1017,9 +1122,15 @@
         <v>48</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:7" ht="15">
+      <c r="G28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>10</v>
+      </c>
       <c r="B29" s="17">
         <v>8</v>
       </c>
@@ -1035,31 +1146,43 @@
       <c r="F29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:7" ht="15">
-      <c r="B30" s="17">
+      <c r="G29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" s="28">
         <v>9</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="2:7" ht="15">
+      <c r="D30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>12</v>
+      </c>
       <c r="B31" s="17">
         <v>10</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -1071,31 +1194,43 @@
       <c r="F31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:7" ht="15">
-      <c r="B32" s="17">
+      <c r="G31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="28">
         <v>11</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="2:7" ht="15">
+      <c r="D32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>14</v>
+      </c>
       <c r="B33" s="17">
         <v>12</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="16" t="s">
@@ -1107,9 +1242,15 @@
       <c r="F33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="2:7" ht="15">
+      <c r="G33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>15</v>
+      </c>
       <c r="B34" s="21">
         <v>13.1</v>
       </c>
@@ -1121,9 +1262,15 @@
         <v>48</v>
       </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="2:7" ht="15">
+      <c r="G34" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>16</v>
+      </c>
       <c r="B35" s="21">
         <v>13.2</v>
       </c>
@@ -1135,9 +1282,15 @@
         <v>48</v>
       </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="2:7" ht="15">
+      <c r="G35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>17</v>
+      </c>
       <c r="B36" s="17">
         <v>14</v>
       </c>
@@ -1153,31 +1306,43 @@
       <c r="F36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="2:7" ht="15">
-      <c r="B37" s="17">
+      <c r="G36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" s="28">
         <v>15</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="2:7" ht="15">
+      <c r="D37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>19</v>
+      </c>
       <c r="B38" s="17">
         <v>16</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="16" t="s">
@@ -1189,13 +1354,19 @@
       <c r="F38" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="2:7" ht="15">
+      <c r="G38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>20</v>
+      </c>
       <c r="B39" s="17">
         <v>17</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -1207,13 +1378,19 @@
       <c r="F39" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="2:7" ht="15">
+      <c r="G39" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>21</v>
+      </c>
       <c r="B40" s="17">
         <v>18</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="16" t="s">
@@ -1225,31 +1402,43 @@
       <c r="F40" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="2:7" ht="15">
-      <c r="B41" s="17">
+      <c r="G40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" s="28">
         <v>19</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="2:7" ht="15">
+      <c r="D41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>23</v>
+      </c>
       <c r="B42" s="17">
         <v>20</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -1261,9 +1450,15 @@
       <c r="F42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="2:7" ht="15">
+      <c r="G42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>24</v>
+      </c>
       <c r="B43" s="17">
         <v>21</v>
       </c>
@@ -1279,45 +1474,63 @@
       <c r="F43" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="2:7" ht="15">
-      <c r="B44" s="17">
+      <c r="G43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44" s="28">
         <v>22</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="2:7" ht="15">
-      <c r="B45" s="17">
+      <c r="D44" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" s="28">
         <v>23</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="2:7" ht="15">
+      <c r="D45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>27</v>
+      </c>
       <c r="B46" s="17">
         <v>24</v>
       </c>
@@ -1333,13 +1546,19 @@
       <c r="F46" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="2:7" ht="15">
+      <c r="G46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>28</v>
+      </c>
       <c r="B47" s="17">
         <v>25</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="16" t="s">
@@ -1351,9 +1570,15 @@
       <c r="F47" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="2:7" ht="15">
+      <c r="G47" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>29</v>
+      </c>
       <c r="B48" s="17">
         <v>26</v>
       </c>
@@ -1369,43 +1594,58 @@
       <c r="F48" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="2:7" ht="15">
-      <c r="B49" s="17">
+      <c r="G48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" s="28">
         <v>27</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="2:7" ht="15">
-      <c r="B50" s="17">
+      <c r="D49" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>31</v>
+      </c>
+      <c r="B50" s="28">
         <v>28</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="16"/>
+      <c r="D50" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1415,12 +1655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1428,12 +1668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report Progress.xlsx
+++ b/Report Progress.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_Toc373322786" localSheetId="0">Sheet1!$C$11</definedName>
     <definedName name="_Toc373322791" localSheetId="0">Sheet1!$C$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -241,7 +241,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,18 +338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -369,27 +351,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,7 +674,7 @@
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A18" sqref="A18"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -919,541 +895,541 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="24">
         <v>1</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="27"/>
+      <c r="D20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="24">
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="16"/>
+      <c r="D21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="24">
         <v>3</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="27"/>
+      <c r="D22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="24">
         <v>4</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="16"/>
+      <c r="D23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="26"/>
+      <c r="D24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="24">
         <v>5.2</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="27"/>
+      <c r="D25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="15">
         <v>6</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="20" t="s">
+      <c r="D26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="20"/>
+      <c r="G26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="15">
         <v>7.1</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="20"/>
+      <c r="E27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="15">
         <v>7.2</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="20"/>
+      <c r="E28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="22">
         <v>8</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="16"/>
+      <c r="D29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
         <v>11</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="22">
         <v>9</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="27"/>
+      <c r="D30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="22">
         <v>10</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="16"/>
+      <c r="D31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
         <v>13</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="22">
         <v>11</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="27"/>
+      <c r="D32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
         <v>14</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="22">
         <v>12</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="16"/>
+      <c r="D33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
         <v>15</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="17">
         <v>13.1</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="20"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
         <v>16</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="17">
         <v>13.2</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="20"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="22">
         <v>14</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="16"/>
+      <c r="D36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="22">
         <v>15</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="27"/>
+      <c r="D37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
         <v>19</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="22">
         <v>16</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="16"/>
+      <c r="D38" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
         <v>20</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="22">
         <v>17</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="16"/>
+      <c r="D39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
         <v>21</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="22">
         <v>18</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="16"/>
+      <c r="D40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
         <v>22</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="22">
         <v>19</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="27"/>
+      <c r="D41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
         <v>23</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="22">
         <v>20</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="16"/>
+      <c r="D42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
@@ -1483,169 +1459,169 @@
       <c r="A44">
         <v>25</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="22">
         <v>22</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="27"/>
+      <c r="D44" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
         <v>26</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="22">
         <v>23</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="27"/>
+      <c r="D45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
         <v>27</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="22">
         <v>24</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="16"/>
+      <c r="D46" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
         <v>28</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="22">
         <v>25</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="16"/>
+      <c r="D47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
         <v>29</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="22">
         <v>26</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="16"/>
+      <c r="D48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
         <v>30</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="22">
         <v>27</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="27"/>
+      <c r="D49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
         <v>31</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="22">
         <v>28</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="27"/>
+      <c r="D50" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
